--- a/laba9/table.xlsx
+++ b/laba9/table.xlsx
@@ -128,6 +128,90 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Распределение зарплат по отделам</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!B17</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$17:$A$20</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$18:$B$20</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -417,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,8 +627,6 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" s="1" t="inlineStr">
         <is>
           <t>Бухгалтерия 
@@ -560,7 +642,6 @@
       <c r="F4" t="n">
         <v>13369.56</v>
       </c>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>1738.05</v>
       </c>
@@ -709,8 +790,6 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" s="1" t="inlineStr">
         <is>
           <t>Отдел кадров 
@@ -726,7 +805,6 @@
       <c r="F9" t="n">
         <v>28888.07</v>
       </c>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
         <v>3755.45</v>
       </c>
@@ -770,8 +848,6 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr"/>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Столовая 
@@ -787,7 +863,6 @@
       <c r="F11" t="n">
         <v>9000</v>
       </c>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
         <v>1170</v>
       </c>
@@ -796,8 +871,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" s="1" t="inlineStr">
         <is>
           <t>Общий итог</t>
@@ -815,12 +888,84 @@
       <c r="G12" t="n">
         <v>51257.63</v>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>44594.13</v>
       </c>
     </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Средняя зарплата по отделам:</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>17085.87666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Максимальная зарплата:</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Минимальная зарплата:</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2869.56</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Отдел</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Сумма зарплаты</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Бухгалтерия </t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>13369.56</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Отдел кадров </t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>28888.07</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Столовая </t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>